--- a/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Mesotrione/2023/Mesotrione_Absolute ED/Data Sheet_Meso_GC.xlsx
+++ b/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Mesotrione/2023/Mesotrione_Absolute ED/Data Sheet_Meso_GC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/PhD/PhD Projects/Waterhemp/Metabolism Inhibitors/GC/Mesotrione/2023/Mesotrione_Absolute ED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="582" documentId="13_ncr:1_{DCBFFDB1-6533-4D82-AAE7-984FEA5D15ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FA50D75-96F3-4579-BFD1-6D1D1B5B0B9D}"/>
+  <xr:revisionPtr revIDLastSave="591" documentId="13_ncr:1_{DCBFFDB1-6533-4D82-AAE7-984FEA5D15ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B7666F0-7587-4E34-89F1-54526C986E97}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8BE33F48-9045-46B1-A80E-2B5333758AEB}"/>
   </bookViews>
@@ -185,6 +185,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,8 +491,8 @@
   <dimension ref="A1:J579"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P148" sqref="P148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5011,12 +5015,8 @@
       <c r="H141" s="3">
         <v>2</v>
       </c>
-      <c r="I141" s="3">
-        <v>0</v>
-      </c>
-      <c r="J141" s="3">
-        <v>0</v>
-      </c>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
@@ -6003,12 +6003,8 @@
       <c r="H172" s="3">
         <v>3</v>
       </c>
-      <c r="I172" s="3">
-        <v>0</v>
-      </c>
-      <c r="J172" s="3">
-        <v>0</v>
-      </c>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
@@ -11411,12 +11407,8 @@
       <c r="H341" s="3">
         <v>2</v>
       </c>
-      <c r="I341" s="3">
-        <v>0</v>
-      </c>
-      <c r="J341" s="3">
-        <v>0</v>
-      </c>
+      <c r="I341" s="3"/>
+      <c r="J341" s="3"/>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
